--- a/data/apps-master/1992.xlsx
+++ b/data/apps-master/1992.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisowen/Desktop/tranmere-web/data/apps-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA244DE-E635-2D4F-BF9C-901FC8548BB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD8E3AE-0EE9-734E-8BB8-08B9E5623D9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16380" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4580" yWindow="780" windowWidth="28040" windowHeight="16380" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1983" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1985" uniqueCount="75">
   <si>
     <t>Date</t>
   </si>
@@ -250,6 +250,12 @@
   </si>
   <si>
     <t>Play Offs</t>
+  </si>
+  <si>
+    <t>Penalty</t>
+  </si>
+  <si>
+    <t>Shot</t>
   </si>
 </sst>
 </file>
@@ -4150,8 +4156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C667EFD-6457-7247-A922-3280CF622987}">
   <dimension ref="A1:N81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5274,7 +5280,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>34041</v>
       </c>
@@ -5291,7 +5297,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>34041</v>
       </c>
@@ -5308,7 +5314,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>34054</v>
       </c>
@@ -5325,7 +5331,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>34054</v>
       </c>
@@ -5342,7 +5348,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>34061</v>
       </c>
@@ -5359,7 +5365,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>34061</v>
       </c>
@@ -5376,7 +5382,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>34065</v>
       </c>
@@ -5393,7 +5399,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>34065</v>
       </c>
@@ -5410,7 +5416,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>34065</v>
       </c>
@@ -5427,7 +5433,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>34071</v>
       </c>
@@ -5444,7 +5450,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>34071</v>
       </c>
@@ -5461,7 +5467,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>34076</v>
       </c>
@@ -5478,7 +5484,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>34076</v>
       </c>
@@ -5495,7 +5501,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>34105</v>
       </c>
@@ -5511,8 +5517,17 @@
       <c r="E78" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G78" t="s">
+        <v>74</v>
+      </c>
+      <c r="I78">
+        <v>58</v>
+      </c>
+      <c r="L78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>34108</v>
       </c>
@@ -5528,8 +5543,14 @@
       <c r="E79" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G79" t="s">
+        <v>73</v>
+      </c>
+      <c r="I79">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>34108</v>
       </c>
@@ -5545,8 +5566,11 @@
       <c r="E80" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I80">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>34108</v>
       </c>
@@ -5560,7 +5584,10 @@
         <v>1992</v>
       </c>
       <c r="E81" t="s">
-        <v>55</v>
+        <v>60</v>
+      </c>
+      <c r="I81">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/data/apps-master/1992.xlsx
+++ b/data/apps-master/1992.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisowen/Desktop/tranmere-web/data/apps-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD8E3AE-0EE9-734E-8BB8-08B9E5623D9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904F07C7-69C3-424A-9EE5-F1847C84A3F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4580" yWindow="780" windowWidth="28040" windowHeight="16380" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="16320" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1985" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2463" uniqueCount="87">
   <si>
     <t>Date</t>
   </si>
@@ -174,9 +174,6 @@
     <t>Steve Cooper</t>
   </si>
   <si>
-    <t>Shaub Garnett</t>
-  </si>
-  <si>
     <t>Steve Vickers</t>
   </si>
   <si>
@@ -256,6 +253,45 @@
   </si>
   <si>
     <t>Shot</t>
+  </si>
+  <si>
+    <t>1992-09-01</t>
+  </si>
+  <si>
+    <t>Anglo Italian Cup</t>
+  </si>
+  <si>
+    <t>1992-09-15</t>
+  </si>
+  <si>
+    <t>1992-11-11</t>
+  </si>
+  <si>
+    <t>Reggia</t>
+  </si>
+  <si>
+    <t>1992-11-24</t>
+  </si>
+  <si>
+    <t>Cremonese</t>
+  </si>
+  <si>
+    <t>1992-12-08</t>
+  </si>
+  <si>
+    <t>Pisa</t>
+  </si>
+  <si>
+    <t>1992-12-16</t>
+  </si>
+  <si>
+    <t>Cozensa</t>
+  </si>
+  <si>
+    <t>Danny Coyne</t>
+  </si>
+  <si>
+    <t>John McGreal</t>
   </si>
 </sst>
 </file>
@@ -1100,10 +1136,1244 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F60" sqref="A50:F60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="24.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>33831</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>1992</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>33835</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>1992</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>33838</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>1992</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>33841</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>1992</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>33844</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>1992</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>33852</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>1992</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>33859</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>1992</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>33865</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>1992</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>33873</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>1992</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>33876</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>1992</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>33880</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>1992</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>33887</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>1992</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>33894</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>1992</v>
+      </c>
+      <c r="E14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>33901</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>1992</v>
+      </c>
+      <c r="E15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>33907</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>1992</v>
+      </c>
+      <c r="E16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>33911</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>1992</v>
+      </c>
+      <c r="E17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>33915</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>1992</v>
+      </c>
+      <c r="E18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>33922</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <v>1992</v>
+      </c>
+      <c r="E19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>33929</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>1992</v>
+      </c>
+      <c r="E20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>33936</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21">
+        <v>1992</v>
+      </c>
+      <c r="E21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>33942</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22">
+        <v>1992</v>
+      </c>
+      <c r="E22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>33957</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23">
+        <v>1992</v>
+      </c>
+      <c r="E23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>33964</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24">
+        <v>1992</v>
+      </c>
+      <c r="E24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>33966</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25">
+        <v>1992</v>
+      </c>
+      <c r="E25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>33971</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26">
+        <v>1992</v>
+      </c>
+      <c r="E26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>33978</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27">
+        <v>1992</v>
+      </c>
+      <c r="E27" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>33981</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28">
+        <v>1992</v>
+      </c>
+      <c r="E28" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>33984</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29">
+        <v>1992</v>
+      </c>
+      <c r="E29" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>33992</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30">
+        <v>1992</v>
+      </c>
+      <c r="E30" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>33995</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31">
+        <v>1992</v>
+      </c>
+      <c r="E31" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>34006</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32">
+        <v>1992</v>
+      </c>
+      <c r="E32" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>34013</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33">
+        <v>1992</v>
+      </c>
+      <c r="E33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>34020</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34">
+        <v>1992</v>
+      </c>
+      <c r="E34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>34023</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35">
+        <v>1992</v>
+      </c>
+      <c r="E35" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>34028</v>
+      </c>
+      <c r="B36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36">
+        <v>1992</v>
+      </c>
+      <c r="E36" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>34034</v>
+      </c>
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37">
+        <v>1992</v>
+      </c>
+      <c r="E37" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>34037</v>
+      </c>
+      <c r="B38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38">
+        <v>1992</v>
+      </c>
+      <c r="E38" t="s">
+        <v>39</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>34041</v>
+      </c>
+      <c r="B39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39">
+        <v>1992</v>
+      </c>
+      <c r="E39" t="s">
+        <v>39</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>34044</v>
+      </c>
+      <c r="B40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40">
+        <v>1992</v>
+      </c>
+      <c r="E40" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>34048</v>
+      </c>
+      <c r="B41" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41">
+        <v>1992</v>
+      </c>
+      <c r="E41" t="s">
+        <v>39</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>34051</v>
+      </c>
+      <c r="B42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42">
+        <v>1992</v>
+      </c>
+      <c r="E42" t="s">
+        <v>39</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>34054</v>
+      </c>
+      <c r="B43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43">
+        <v>1992</v>
+      </c>
+      <c r="E43" t="s">
+        <v>39</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>34061</v>
+      </c>
+      <c r="B44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44">
+        <v>1992</v>
+      </c>
+      <c r="E44" t="s">
+        <v>39</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>34065</v>
+      </c>
+      <c r="B45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45">
+        <v>1992</v>
+      </c>
+      <c r="E45" t="s">
+        <v>39</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>34069</v>
+      </c>
+      <c r="B46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46">
+        <v>1992</v>
+      </c>
+      <c r="E46" t="s">
+        <v>39</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>34071</v>
+      </c>
+      <c r="B47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47">
+        <v>1992</v>
+      </c>
+      <c r="E47" t="s">
+        <v>39</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>34076</v>
+      </c>
+      <c r="B48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48">
+        <v>1992</v>
+      </c>
+      <c r="E48" t="s">
+        <v>39</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>34083</v>
+      </c>
+      <c r="B49" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49">
+        <v>1992</v>
+      </c>
+      <c r="E49" t="s">
+        <v>39</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50">
+        <v>1992</v>
+      </c>
+      <c r="E50" t="s">
+        <v>39</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" t="s">
+        <v>75</v>
+      </c>
+      <c r="D51">
+        <v>1992</v>
+      </c>
+      <c r="E51" t="s">
+        <v>39</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52">
+        <v>1992</v>
+      </c>
+      <c r="E52" t="s">
+        <v>39</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53">
+        <v>1992</v>
+      </c>
+      <c r="E53" t="s">
+        <v>39</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54">
+        <v>1992</v>
+      </c>
+      <c r="E54" t="s">
+        <v>39</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55" t="s">
+        <v>75</v>
+      </c>
+      <c r="D55">
+        <v>1992</v>
+      </c>
+      <c r="E55" t="s">
+        <v>39</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>34090</v>
+      </c>
+      <c r="B56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56">
+        <v>1992</v>
+      </c>
+      <c r="E56" t="s">
+        <v>39</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>34093</v>
+      </c>
+      <c r="B57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57">
+        <v>1992</v>
+      </c>
+      <c r="E57" t="s">
+        <v>39</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>34097</v>
+      </c>
+      <c r="B58" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58">
+        <v>1992</v>
+      </c>
+      <c r="E58" t="s">
+        <v>85</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="K58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>34105</v>
+      </c>
+      <c r="B59" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" t="s">
+        <v>71</v>
+      </c>
+      <c r="D59">
+        <v>1992</v>
+      </c>
+      <c r="E59" t="s">
+        <v>39</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>34108</v>
+      </c>
+      <c r="B60" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" t="s">
+        <v>71</v>
+      </c>
+      <c r="D60">
+        <v>1992</v>
+      </c>
+      <c r="E60" t="s">
+        <v>39</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:J60"/>
+  <sheetViews>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1157,10 +2427,10 @@
         <v>1992</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1177,10 +2447,13 @@
         <v>1992</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1197,10 +2470,10 @@
         <v>1992</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1217,10 +2490,10 @@
         <v>1992</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1237,10 +2510,10 @@
         <v>1992</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1257,10 +2530,10 @@
         <v>1992</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1277,10 +2550,13 @@
         <v>1992</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1297,10 +2573,10 @@
         <v>1992</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1317,10 +2593,10 @@
         <v>1992</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1337,10 +2613,10 @@
         <v>1992</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1357,10 +2633,10 @@
         <v>1992</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1377,10 +2653,10 @@
         <v>1992</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1397,10 +2673,10 @@
         <v>1992</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1417,10 +2693,10 @@
         <v>1992</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1437,13 +2713,13 @@
         <v>1992</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>33911</v>
       </c>
@@ -1457,13 +2733,13 @@
         <v>1992</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>33915</v>
       </c>
@@ -1477,13 +2753,13 @@
         <v>1992</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>33922</v>
       </c>
@@ -1497,13 +2773,13 @@
         <v>1992</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>33929</v>
       </c>
@@ -1517,13 +2793,13 @@
         <v>1992</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>33936</v>
       </c>
@@ -1537,13 +2813,13 @@
         <v>1992</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>33942</v>
       </c>
@@ -1557,13 +2833,13 @@
         <v>1992</v>
       </c>
       <c r="E22" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>33957</v>
       </c>
@@ -1577,13 +2853,13 @@
         <v>1992</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>33964</v>
       </c>
@@ -1597,13 +2873,13 @@
         <v>1992</v>
       </c>
       <c r="E24" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>33966</v>
       </c>
@@ -1617,13 +2893,13 @@
         <v>1992</v>
       </c>
       <c r="E25" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>33971</v>
       </c>
@@ -1637,13 +2913,13 @@
         <v>1992</v>
       </c>
       <c r="E26" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>33978</v>
       </c>
@@ -1657,13 +2933,13 @@
         <v>1992</v>
       </c>
       <c r="E27" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>33981</v>
       </c>
@@ -1677,13 +2953,13 @@
         <v>1992</v>
       </c>
       <c r="E28" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>33984</v>
       </c>
@@ -1697,13 +2973,13 @@
         <v>1992</v>
       </c>
       <c r="E29" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>33992</v>
       </c>
@@ -1717,13 +2993,16 @@
         <v>1992</v>
       </c>
       <c r="E30" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>33995</v>
       </c>
@@ -1737,13 +3016,16 @@
         <v>1992</v>
       </c>
       <c r="E31" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>34006</v>
       </c>
@@ -1757,13 +3039,13 @@
         <v>1992</v>
       </c>
       <c r="E32" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>34013</v>
       </c>
@@ -1777,13 +3059,16 @@
         <v>1992</v>
       </c>
       <c r="E33" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>34020</v>
       </c>
@@ -1797,13 +3082,13 @@
         <v>1992</v>
       </c>
       <c r="E34" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34023</v>
       </c>
@@ -1817,13 +3102,13 @@
         <v>1992</v>
       </c>
       <c r="E35" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34028</v>
       </c>
@@ -1837,13 +3122,16 @@
         <v>1992</v>
       </c>
       <c r="E36" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>34034</v>
       </c>
@@ -1857,13 +3145,13 @@
         <v>1992</v>
       </c>
       <c r="E37" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>34037</v>
       </c>
@@ -1877,13 +3165,13 @@
         <v>1992</v>
       </c>
       <c r="E38" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>34041</v>
       </c>
@@ -1897,13 +3185,13 @@
         <v>1992</v>
       </c>
       <c r="E39" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="F39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>34044</v>
       </c>
@@ -1917,13 +3205,13 @@
         <v>1992</v>
       </c>
       <c r="E40" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>34048</v>
       </c>
@@ -1937,13 +3225,13 @@
         <v>1992</v>
       </c>
       <c r="E41" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>34051</v>
       </c>
@@ -1957,13 +3245,13 @@
         <v>1992</v>
       </c>
       <c r="E42" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>34054</v>
       </c>
@@ -1977,13 +3265,13 @@
         <v>1992</v>
       </c>
       <c r="E43" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>34061</v>
       </c>
@@ -1997,13 +3285,13 @@
         <v>1992</v>
       </c>
       <c r="E44" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>34065</v>
       </c>
@@ -2017,13 +3305,13 @@
         <v>1992</v>
       </c>
       <c r="E45" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>34069</v>
       </c>
@@ -2037,13 +3325,13 @@
         <v>1992</v>
       </c>
       <c r="E46" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>34071</v>
       </c>
@@ -2057,13 +3345,13 @@
         <v>1992</v>
       </c>
       <c r="E47" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>34076</v>
       </c>
@@ -2077,13 +3365,13 @@
         <v>1992</v>
       </c>
       <c r="E48" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>34083</v>
       </c>
@@ -2097,10 +3385,239 @@
         <v>1992</v>
       </c>
       <c r="E49" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50">
+        <v>1992</v>
+      </c>
+      <c r="E50" t="s">
+        <v>45</v>
+      </c>
+      <c r="F50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" t="s">
+        <v>75</v>
+      </c>
+      <c r="D51">
+        <v>1992</v>
+      </c>
+      <c r="E51" t="s">
+        <v>50</v>
+      </c>
+      <c r="F51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52">
+        <v>1992</v>
+      </c>
+      <c r="E52" t="s">
+        <v>50</v>
+      </c>
+      <c r="F52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53">
+        <v>1992</v>
+      </c>
+      <c r="E53" t="s">
+        <v>50</v>
+      </c>
+      <c r="F53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54">
+        <v>1992</v>
+      </c>
+      <c r="E54" t="s">
+        <v>45</v>
+      </c>
+      <c r="F54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55" t="s">
+        <v>75</v>
+      </c>
+      <c r="D55">
+        <v>1992</v>
+      </c>
+      <c r="E55" t="s">
+        <v>50</v>
+      </c>
+      <c r="F55">
+        <v>10</v>
+      </c>
+      <c r="J55" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>34090</v>
+      </c>
+      <c r="B56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56">
+        <v>1992</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>34093</v>
+      </c>
+      <c r="B57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57">
+        <v>1992</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57">
+        <v>10</v>
+      </c>
+      <c r="G57" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>34097</v>
+      </c>
+      <c r="B58" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58">
+        <v>1992</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>34105</v>
+      </c>
+      <c r="B59" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" t="s">
+        <v>71</v>
+      </c>
+      <c r="D59">
+        <v>1992</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59">
+        <v>10</v>
+      </c>
+      <c r="G59" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>34108</v>
+      </c>
+      <c r="B60" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" t="s">
+        <v>71</v>
+      </c>
+      <c r="D60">
+        <v>1992</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2108,12 +3625,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:J49"/>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A19" sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D58" sqref="A56:D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2167,10 +3684,10 @@
         <v>1992</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -2187,13 +3704,10 @@
         <v>1992</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F3">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -2210,10 +3724,10 @@
         <v>1992</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -2230,10 +3744,10 @@
         <v>1992</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -2250,10 +3764,10 @@
         <v>1992</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -2270,10 +3784,10 @@
         <v>1992</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -2290,13 +3804,10 @@
         <v>1992</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F8">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -2313,10 +3824,10 @@
         <v>1992</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -2333,10 +3844,10 @@
         <v>1992</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -2353,10 +3864,10 @@
         <v>1992</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -2373,10 +3884,10 @@
         <v>1992</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F12">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -2393,10 +3904,10 @@
         <v>1992</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F13">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -2413,10 +3924,10 @@
         <v>1992</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F14">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -2433,10 +3944,10 @@
         <v>1992</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F15">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -2453,10 +3964,10 @@
         <v>1992</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F16">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -2473,10 +3984,10 @@
         <v>1992</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F17">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -2493,10 +4004,10 @@
         <v>1992</v>
       </c>
       <c r="E18" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F18">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -2513,10 +4024,10 @@
         <v>1992</v>
       </c>
       <c r="E19" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F19">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -2533,10 +4044,10 @@
         <v>1992</v>
       </c>
       <c r="E20" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F20">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -2553,10 +4064,10 @@
         <v>1992</v>
       </c>
       <c r="E21" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F21">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -2573,10 +4084,10 @@
         <v>1992</v>
       </c>
       <c r="E22" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F22">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -2596,7 +4107,7 @@
         <v>51</v>
       </c>
       <c r="F23">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -2613,10 +4124,10 @@
         <v>1992</v>
       </c>
       <c r="E24" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F24">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -2633,10 +4144,10 @@
         <v>1992</v>
       </c>
       <c r="E25" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F25">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -2653,10 +4164,10 @@
         <v>1992</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F26">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -2673,10 +4184,10 @@
         <v>1992</v>
       </c>
       <c r="E27" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F27">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -2693,10 +4204,10 @@
         <v>1992</v>
       </c>
       <c r="E28" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F28">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -2713,10 +4224,13 @@
         <v>1992</v>
       </c>
       <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29">
+        <v>11</v>
+      </c>
+      <c r="G29" t="s">
         <v>51</v>
-      </c>
-      <c r="F29">
-        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -2733,13 +4247,10 @@
         <v>1992</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30">
-        <v>10</v>
-      </c>
-      <c r="G30" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -2756,13 +4267,10 @@
         <v>1992</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31">
-        <v>10</v>
-      </c>
-      <c r="G31" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -2779,10 +4287,10 @@
         <v>1992</v>
       </c>
       <c r="E32" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F32">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -2799,13 +4307,10 @@
         <v>1992</v>
       </c>
       <c r="E33" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F33">
-        <v>10</v>
-      </c>
-      <c r="G33" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -2822,10 +4327,13 @@
         <v>1992</v>
       </c>
       <c r="E34" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F34">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -2842,10 +4350,10 @@
         <v>1992</v>
       </c>
       <c r="E35" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F35">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -2862,13 +4370,10 @@
         <v>1992</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36">
-        <v>10</v>
-      </c>
-      <c r="G36" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -2885,10 +4390,10 @@
         <v>1992</v>
       </c>
       <c r="E37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F37">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -2905,10 +4410,10 @@
         <v>1992</v>
       </c>
       <c r="E38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F38">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -2925,10 +4430,10 @@
         <v>1992</v>
       </c>
       <c r="E39" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F39">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -2945,10 +4450,10 @@
         <v>1992</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F40">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -2965,10 +4470,10 @@
         <v>1992</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F41">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -2985,10 +4490,10 @@
         <v>1992</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F42">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -3005,10 +4510,10 @@
         <v>1992</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F43">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -3025,10 +4530,10 @@
         <v>1992</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F44">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -3045,10 +4550,10 @@
         <v>1992</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F45">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -3065,10 +4570,10 @@
         <v>1992</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F46">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -3085,10 +4590,10 @@
         <v>1992</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F47">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -3105,13 +4610,13 @@
         <v>1992</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F48">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>34083</v>
       </c>
@@ -3125,1025 +4630,232 @@
         <v>1992</v>
       </c>
       <c r="E49" t="s">
+        <v>49</v>
+      </c>
+      <c r="F49">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50">
+        <v>1992</v>
+      </c>
+      <c r="E50" t="s">
+        <v>49</v>
+      </c>
+      <c r="F50">
+        <v>11</v>
+      </c>
+      <c r="G50" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" t="s">
+        <v>75</v>
+      </c>
+      <c r="D51">
+        <v>1992</v>
+      </c>
+      <c r="E51" t="s">
         <v>44</v>
       </c>
-      <c r="F49">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:J49"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>33831</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2">
-        <v>1992</v>
-      </c>
-      <c r="E2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>33835</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3">
-        <v>1992</v>
-      </c>
-      <c r="E3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>33838</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="F51">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52">
+        <v>1992</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53">
+        <v>1992</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54">
+        <v>1992</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55" t="s">
+        <v>75</v>
+      </c>
+      <c r="D55">
+        <v>1992</v>
+      </c>
+      <c r="E55" t="s">
+        <v>51</v>
+      </c>
+      <c r="F55">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>34090</v>
+      </c>
+      <c r="B56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56">
+        <v>1992</v>
+      </c>
+      <c r="E56" t="s">
+        <v>49</v>
+      </c>
+      <c r="F56">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>34093</v>
+      </c>
+      <c r="B57" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>1992</v>
-      </c>
-      <c r="E4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>33841</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5">
-        <v>1992</v>
-      </c>
-      <c r="E5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>33844</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6">
-        <v>1992</v>
-      </c>
-      <c r="E6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>33852</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7">
-        <v>1992</v>
-      </c>
-      <c r="E7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>33859</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8">
-        <v>1992</v>
-      </c>
-      <c r="E8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>33865</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9">
-        <v>1992</v>
-      </c>
-      <c r="E9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>33873</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10">
-        <v>1992</v>
-      </c>
-      <c r="E10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>33876</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11">
-        <v>1992</v>
-      </c>
-      <c r="E11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>33880</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12">
-        <v>1992</v>
-      </c>
-      <c r="E12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>33887</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13">
-        <v>1992</v>
-      </c>
-      <c r="E13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>33894</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14">
-        <v>1992</v>
-      </c>
-      <c r="E14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>33901</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15">
-        <v>1992</v>
-      </c>
-      <c r="E15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>33907</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57">
+        <v>1992</v>
+      </c>
+      <c r="E57" t="s">
+        <v>52</v>
+      </c>
+      <c r="F57">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>34097</v>
+      </c>
+      <c r="B58" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16">
-        <v>1992</v>
-      </c>
-      <c r="E16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>33911</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17">
-        <v>1992</v>
-      </c>
-      <c r="E17" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>33915</v>
-      </c>
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18">
-        <v>1992</v>
-      </c>
-      <c r="E18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>33922</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19">
-        <v>1992</v>
-      </c>
-      <c r="E19" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>33929</v>
-      </c>
-      <c r="B20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20">
-        <v>1992</v>
-      </c>
-      <c r="E20" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>33936</v>
-      </c>
-      <c r="B21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21">
-        <v>1992</v>
-      </c>
-      <c r="E21" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>33942</v>
-      </c>
-      <c r="B22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22">
-        <v>1992</v>
-      </c>
-      <c r="E22" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>33957</v>
-      </c>
-      <c r="B23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23">
-        <v>1992</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58">
+        <v>1992</v>
+      </c>
+      <c r="E58" t="s">
         <v>52</v>
       </c>
-      <c r="F23">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>33964</v>
-      </c>
-      <c r="B24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24">
-        <v>1992</v>
-      </c>
-      <c r="E24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>33966</v>
-      </c>
-      <c r="B25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25">
-        <v>1992</v>
-      </c>
-      <c r="E25" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>33971</v>
-      </c>
-      <c r="B26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26">
-        <v>1992</v>
-      </c>
-      <c r="E26" t="s">
-        <v>44</v>
-      </c>
-      <c r="F26">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>33978</v>
-      </c>
-      <c r="B27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27">
-        <v>1992</v>
-      </c>
-      <c r="E27" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>33981</v>
-      </c>
-      <c r="B28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28">
-        <v>1992</v>
-      </c>
-      <c r="E28" t="s">
-        <v>44</v>
-      </c>
-      <c r="F28">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>33984</v>
-      </c>
-      <c r="B29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29">
-        <v>1992</v>
-      </c>
-      <c r="E29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="F58">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>34105</v>
+      </c>
+      <c r="B59" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" t="s">
+        <v>71</v>
+      </c>
+      <c r="D59">
+        <v>1992</v>
+      </c>
+      <c r="E59" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>33992</v>
-      </c>
-      <c r="B30" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30">
-        <v>1992</v>
-      </c>
-      <c r="E30" t="s">
-        <v>44</v>
-      </c>
-      <c r="F30">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>33995</v>
-      </c>
-      <c r="B31" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31">
-        <v>1992</v>
-      </c>
-      <c r="E31" t="s">
-        <v>44</v>
-      </c>
-      <c r="F31">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>34006</v>
-      </c>
-      <c r="B32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32">
-        <v>1992</v>
-      </c>
-      <c r="E32" t="s">
-        <v>44</v>
-      </c>
-      <c r="F32">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>34013</v>
-      </c>
-      <c r="B33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33">
-        <v>1992</v>
-      </c>
-      <c r="E33" t="s">
-        <v>44</v>
-      </c>
-      <c r="F33">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>34020</v>
-      </c>
-      <c r="B34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34">
-        <v>1992</v>
-      </c>
-      <c r="E34" t="s">
-        <v>44</v>
-      </c>
-      <c r="F34">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>34023</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="F59">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>34108</v>
+      </c>
+      <c r="B60" t="s">
         <v>38</v>
       </c>
-      <c r="C35" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35">
-        <v>1992</v>
-      </c>
-      <c r="E35" t="s">
-        <v>44</v>
-      </c>
-      <c r="F35">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>34028</v>
-      </c>
-      <c r="B36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36">
-        <v>1992</v>
-      </c>
-      <c r="E36" t="s">
-        <v>44</v>
-      </c>
-      <c r="F36">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>34034</v>
-      </c>
-      <c r="B37" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37">
-        <v>1992</v>
-      </c>
-      <c r="E37" t="s">
-        <v>50</v>
-      </c>
-      <c r="F37">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>34037</v>
-      </c>
-      <c r="B38" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38">
-        <v>1992</v>
-      </c>
-      <c r="E38" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <v>34041</v>
-      </c>
-      <c r="B39" t="s">
-        <v>27</v>
-      </c>
-      <c r="C39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39">
-        <v>1992</v>
-      </c>
-      <c r="E39" t="s">
-        <v>50</v>
-      </c>
-      <c r="F39">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
-        <v>34044</v>
-      </c>
-      <c r="B40" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40">
-        <v>1992</v>
-      </c>
-      <c r="E40" t="s">
-        <v>50</v>
-      </c>
-      <c r="F40">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <v>34048</v>
-      </c>
-      <c r="B41" t="s">
-        <v>31</v>
-      </c>
-      <c r="C41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41">
-        <v>1992</v>
-      </c>
-      <c r="E41" t="s">
-        <v>50</v>
-      </c>
-      <c r="F41">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
-        <v>34051</v>
-      </c>
-      <c r="B42" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42">
-        <v>1992</v>
-      </c>
-      <c r="E42" t="s">
-        <v>50</v>
-      </c>
-      <c r="F42">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <v>34054</v>
-      </c>
-      <c r="B43" t="s">
-        <v>26</v>
-      </c>
-      <c r="C43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43">
-        <v>1992</v>
-      </c>
-      <c r="E43" t="s">
-        <v>50</v>
-      </c>
-      <c r="F43">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <v>34061</v>
-      </c>
-      <c r="B44" t="s">
-        <v>30</v>
-      </c>
-      <c r="C44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44">
-        <v>1992</v>
-      </c>
-      <c r="E44" t="s">
-        <v>50</v>
-      </c>
-      <c r="F44">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <v>34065</v>
-      </c>
-      <c r="B45" t="s">
-        <v>38</v>
-      </c>
-      <c r="C45" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45">
-        <v>1992</v>
-      </c>
-      <c r="E45" t="s">
-        <v>50</v>
-      </c>
-      <c r="F45">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
-        <v>34069</v>
-      </c>
-      <c r="B46" t="s">
-        <v>33</v>
-      </c>
-      <c r="C46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46">
-        <v>1992</v>
-      </c>
-      <c r="E46" t="s">
-        <v>50</v>
-      </c>
-      <c r="F46">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
-        <v>34071</v>
-      </c>
-      <c r="B47" t="s">
-        <v>34</v>
-      </c>
-      <c r="C47" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47">
-        <v>1992</v>
-      </c>
-      <c r="E47" t="s">
-        <v>50</v>
-      </c>
-      <c r="F47">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
-        <v>34076</v>
-      </c>
-      <c r="B48" t="s">
-        <v>32</v>
-      </c>
-      <c r="C48" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48">
-        <v>1992</v>
-      </c>
-      <c r="E48" t="s">
-        <v>50</v>
-      </c>
-      <c r="F48">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
-        <v>34083</v>
-      </c>
-      <c r="B49" t="s">
-        <v>23</v>
-      </c>
-      <c r="C49" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49">
-        <v>1992</v>
-      </c>
-      <c r="E49" t="s">
-        <v>50</v>
-      </c>
-      <c r="F49">
+      <c r="C60" t="s">
+        <v>71</v>
+      </c>
+      <c r="D60">
+        <v>1992</v>
+      </c>
+      <c r="E60" t="s">
+        <v>52</v>
+      </c>
+      <c r="F60">
         <v>11</v>
       </c>
     </row>
@@ -4154,10 +4866,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C667EFD-6457-7247-A922-3280CF622987}">
-  <dimension ref="A1:N81"/>
+  <dimension ref="A1:N92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="H78" sqref="H78"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4179,34 +4891,34 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" t="s">
         <v>61</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>62</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>63</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>64</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>65</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>66</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>67</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>68</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>69</v>
-      </c>
-      <c r="N1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -4223,7 +4935,7 @@
         <v>1992</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -4240,7 +4952,7 @@
         <v>1992</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -4257,7 +4969,7 @@
         <v>1992</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -4274,7 +4986,7 @@
         <v>1992</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -4291,7 +5003,7 @@
         <v>1992</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -4325,7 +5037,7 @@
         <v>1992</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -4342,7 +5054,7 @@
         <v>1992</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -4478,7 +5190,7 @@
         <v>1992</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -4495,7 +5207,7 @@
         <v>1992</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -4512,7 +5224,7 @@
         <v>1992</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -4546,7 +5258,7 @@
         <v>1992</v>
       </c>
       <c r="E21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -4563,7 +5275,7 @@
         <v>1992</v>
       </c>
       <c r="E22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -4580,7 +5292,7 @@
         <v>1992</v>
       </c>
       <c r="E23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -4631,7 +5343,7 @@
         <v>1992</v>
       </c>
       <c r="E26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -4648,7 +5360,7 @@
         <v>1992</v>
       </c>
       <c r="E27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -4665,7 +5377,7 @@
         <v>1992</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -4699,7 +5411,7 @@
         <v>1992</v>
       </c>
       <c r="E30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -4733,7 +5445,7 @@
         <v>1992</v>
       </c>
       <c r="E32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -4784,7 +5496,7 @@
         <v>1992</v>
       </c>
       <c r="E35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -4801,7 +5513,7 @@
         <v>1992</v>
       </c>
       <c r="E36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -4818,7 +5530,7 @@
         <v>1992</v>
       </c>
       <c r="E37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -4835,7 +5547,7 @@
         <v>1992</v>
       </c>
       <c r="E38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -4852,7 +5564,7 @@
         <v>1992</v>
       </c>
       <c r="E39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -4869,7 +5581,7 @@
         <v>1992</v>
       </c>
       <c r="E40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -4886,7 +5598,7 @@
         <v>1992</v>
       </c>
       <c r="E41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -4903,7 +5615,7 @@
         <v>1992</v>
       </c>
       <c r="E42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -4920,7 +5632,7 @@
         <v>1992</v>
       </c>
       <c r="E43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -4937,7 +5649,7 @@
         <v>1992</v>
       </c>
       <c r="E44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -4988,7 +5700,7 @@
         <v>1992</v>
       </c>
       <c r="E47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -5022,7 +5734,7 @@
         <v>1992</v>
       </c>
       <c r="E49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -5056,7 +5768,7 @@
         <v>1992</v>
       </c>
       <c r="E51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -5107,7 +5819,7 @@
         <v>1992</v>
       </c>
       <c r="E54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -5124,7 +5836,7 @@
         <v>1992</v>
       </c>
       <c r="E55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -5158,7 +5870,7 @@
         <v>1992</v>
       </c>
       <c r="E57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -5209,7 +5921,7 @@
         <v>1992</v>
       </c>
       <c r="E60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -5243,7 +5955,7 @@
         <v>1992</v>
       </c>
       <c r="E62" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -5260,7 +5972,7 @@
         <v>1992</v>
       </c>
       <c r="E63" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -5311,7 +6023,7 @@
         <v>1992</v>
       </c>
       <c r="E66" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
@@ -5328,7 +6040,7 @@
         <v>1992</v>
       </c>
       <c r="E67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
@@ -5345,7 +6057,7 @@
         <v>1992</v>
       </c>
       <c r="E68" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
@@ -5396,7 +6108,7 @@
         <v>1992</v>
       </c>
       <c r="E71" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
@@ -5413,7 +6125,7 @@
         <v>1992</v>
       </c>
       <c r="E72" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
@@ -5430,7 +6142,7 @@
         <v>1992</v>
       </c>
       <c r="E73" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
@@ -5464,7 +6176,7 @@
         <v>1992</v>
       </c>
       <c r="E75" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
@@ -5498,7 +6210,7 @@
         <v>1992</v>
       </c>
       <c r="E77" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
@@ -5509,7 +6221,7 @@
         <v>38</v>
       </c>
       <c r="C78" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D78">
         <v>1992</v>
@@ -5518,7 +6230,7 @@
         <v>42</v>
       </c>
       <c r="G78" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I78">
         <v>58</v>
@@ -5535,16 +6247,16 @@
         <v>38</v>
       </c>
       <c r="C79" t="s">
+        <v>71</v>
+      </c>
+      <c r="D79">
+        <v>1992</v>
+      </c>
+      <c r="E79" t="s">
+        <v>53</v>
+      </c>
+      <c r="G79" t="s">
         <v>72</v>
-      </c>
-      <c r="D79">
-        <v>1992</v>
-      </c>
-      <c r="E79" t="s">
-        <v>54</v>
-      </c>
-      <c r="G79" t="s">
-        <v>73</v>
       </c>
       <c r="I79">
         <v>83</v>
@@ -5558,7 +6270,7 @@
         <v>38</v>
       </c>
       <c r="C80" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D80">
         <v>1992</v>
@@ -5578,16 +6290,203 @@
         <v>38</v>
       </c>
       <c r="C81" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D81">
         <v>1992</v>
       </c>
       <c r="E81" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I81">
         <v>45</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B82" t="s">
+        <v>32</v>
+      </c>
+      <c r="C82" t="s">
+        <v>75</v>
+      </c>
+      <c r="D82">
+        <v>1992</v>
+      </c>
+      <c r="E82" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B83" t="s">
+        <v>32</v>
+      </c>
+      <c r="C83" t="s">
+        <v>75</v>
+      </c>
+      <c r="D83">
+        <v>1992</v>
+      </c>
+      <c r="E83" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B84" t="s">
+        <v>80</v>
+      </c>
+      <c r="C84" t="s">
+        <v>75</v>
+      </c>
+      <c r="D84">
+        <v>1992</v>
+      </c>
+      <c r="E84" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B85" t="s">
+        <v>82</v>
+      </c>
+      <c r="C85" t="s">
+        <v>75</v>
+      </c>
+      <c r="D85">
+        <v>1992</v>
+      </c>
+      <c r="E85" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B86" t="s">
+        <v>84</v>
+      </c>
+      <c r="C86" t="s">
+        <v>75</v>
+      </c>
+      <c r="D86">
+        <v>1992</v>
+      </c>
+      <c r="E86" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B87" t="s">
+        <v>84</v>
+      </c>
+      <c r="C87" t="s">
+        <v>75</v>
+      </c>
+      <c r="D87">
+        <v>1992</v>
+      </c>
+      <c r="E87" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>34090</v>
+      </c>
+      <c r="B88" t="s">
+        <v>24</v>
+      </c>
+      <c r="C88" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88">
+        <v>1992</v>
+      </c>
+      <c r="E88" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>34090</v>
+      </c>
+      <c r="B89" t="s">
+        <v>24</v>
+      </c>
+      <c r="C89" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89">
+        <v>1992</v>
+      </c>
+      <c r="E89" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>34093</v>
+      </c>
+      <c r="B90" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90">
+        <v>1992</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>34093</v>
+      </c>
+      <c r="B91" t="s">
+        <v>14</v>
+      </c>
+      <c r="C91" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91">
+        <v>1992</v>
+      </c>
+      <c r="E91" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>34097</v>
+      </c>
+      <c r="B92" t="s">
+        <v>25</v>
+      </c>
+      <c r="C92" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92">
+        <v>1992</v>
+      </c>
+      <c r="E92" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -5597,10 +6496,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A33" sqref="A1:A1048576"/>
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6587,7 +7486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>34083</v>
       </c>
@@ -6604,6 +7503,235 @@
         <v>41</v>
       </c>
       <c r="F49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50">
+        <v>1992</v>
+      </c>
+      <c r="E50" t="s">
+        <v>40</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" t="s">
+        <v>75</v>
+      </c>
+      <c r="D51">
+        <v>1992</v>
+      </c>
+      <c r="E51" t="s">
+        <v>41</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52">
+        <v>1992</v>
+      </c>
+      <c r="E52" t="s">
+        <v>41</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53">
+        <v>1992</v>
+      </c>
+      <c r="E53" t="s">
+        <v>41</v>
+      </c>
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="G53" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54">
+        <v>1992</v>
+      </c>
+      <c r="E54" t="s">
+        <v>41</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55" t="s">
+        <v>75</v>
+      </c>
+      <c r="D55">
+        <v>1992</v>
+      </c>
+      <c r="E55" t="s">
+        <v>41</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>34090</v>
+      </c>
+      <c r="B56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56">
+        <v>1992</v>
+      </c>
+      <c r="E56" t="s">
+        <v>41</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>34093</v>
+      </c>
+      <c r="B57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57">
+        <v>1992</v>
+      </c>
+      <c r="E57" t="s">
+        <v>41</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>34097</v>
+      </c>
+      <c r="B58" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58">
+        <v>1992</v>
+      </c>
+      <c r="E58" t="s">
+        <v>41</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>34105</v>
+      </c>
+      <c r="B59" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" t="s">
+        <v>71</v>
+      </c>
+      <c r="D59">
+        <v>1992</v>
+      </c>
+      <c r="E59" t="s">
+        <v>41</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>34108</v>
+      </c>
+      <c r="B60" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" t="s">
+        <v>71</v>
+      </c>
+      <c r="D60">
+        <v>1992</v>
+      </c>
+      <c r="E60" t="s">
+        <v>41</v>
+      </c>
+      <c r="F60">
         <v>2</v>
       </c>
     </row>
@@ -6614,10 +7742,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A19" sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45:F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6671,7 +7799,7 @@
         <v>1992</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -6691,7 +7819,7 @@
         <v>1992</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -6711,7 +7839,7 @@
         <v>1992</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -6731,7 +7859,7 @@
         <v>1992</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -6751,7 +7879,7 @@
         <v>1992</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -6771,7 +7899,7 @@
         <v>1992</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -7160,7 +8288,7 @@
         <v>3</v>
       </c>
       <c r="G26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -7177,7 +8305,7 @@
         <v>1992</v>
       </c>
       <c r="E27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F27">
         <v>3</v>
@@ -7197,7 +8325,7 @@
         <v>1992</v>
       </c>
       <c r="E28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F28">
         <v>3</v>
@@ -7217,7 +8345,7 @@
         <v>1992</v>
       </c>
       <c r="E29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F29">
         <v>3</v>
@@ -7237,7 +8365,7 @@
         <v>1992</v>
       </c>
       <c r="E30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F30">
         <v>3</v>
@@ -7257,7 +8385,7 @@
         <v>1992</v>
       </c>
       <c r="E31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F31">
         <v>3</v>
@@ -7277,7 +8405,7 @@
         <v>1992</v>
       </c>
       <c r="E32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F32">
         <v>3</v>
@@ -7297,7 +8425,7 @@
         <v>1992</v>
       </c>
       <c r="E33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F33">
         <v>3</v>
@@ -7317,7 +8445,7 @@
         <v>1992</v>
       </c>
       <c r="E34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F34">
         <v>3</v>
@@ -7337,7 +8465,7 @@
         <v>1992</v>
       </c>
       <c r="E35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F35">
         <v>3</v>
@@ -7483,7 +8611,7 @@
         <v>1992</v>
       </c>
       <c r="E42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F42">
         <v>3</v>
@@ -7626,6 +8754,226 @@
         <v>40</v>
       </c>
       <c r="F49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50">
+        <v>1992</v>
+      </c>
+      <c r="E50" t="s">
+        <v>52</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" t="s">
+        <v>75</v>
+      </c>
+      <c r="D51">
+        <v>1992</v>
+      </c>
+      <c r="E51" t="s">
+        <v>40</v>
+      </c>
+      <c r="F51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52">
+        <v>1992</v>
+      </c>
+      <c r="E52" t="s">
+        <v>40</v>
+      </c>
+      <c r="F52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53">
+        <v>1992</v>
+      </c>
+      <c r="E53" t="s">
+        <v>40</v>
+      </c>
+      <c r="F53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54">
+        <v>1992</v>
+      </c>
+      <c r="E54" t="s">
+        <v>40</v>
+      </c>
+      <c r="F54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55" t="s">
+        <v>75</v>
+      </c>
+      <c r="D55">
+        <v>1992</v>
+      </c>
+      <c r="E55" t="s">
+        <v>40</v>
+      </c>
+      <c r="F55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>34090</v>
+      </c>
+      <c r="B56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56">
+        <v>1992</v>
+      </c>
+      <c r="E56" t="s">
+        <v>40</v>
+      </c>
+      <c r="F56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>34093</v>
+      </c>
+      <c r="B57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57">
+        <v>1992</v>
+      </c>
+      <c r="E57" t="s">
+        <v>40</v>
+      </c>
+      <c r="F57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>34097</v>
+      </c>
+      <c r="B58" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58">
+        <v>1992</v>
+      </c>
+      <c r="E58" t="s">
+        <v>40</v>
+      </c>
+      <c r="F58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>34105</v>
+      </c>
+      <c r="B59" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" t="s">
+        <v>71</v>
+      </c>
+      <c r="D59">
+        <v>1992</v>
+      </c>
+      <c r="E59" t="s">
+        <v>40</v>
+      </c>
+      <c r="F59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>34108</v>
+      </c>
+      <c r="B60" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" t="s">
+        <v>71</v>
+      </c>
+      <c r="D60">
+        <v>1992</v>
+      </c>
+      <c r="E60" t="s">
+        <v>40</v>
+      </c>
+      <c r="F60">
         <v>3</v>
       </c>
     </row>
@@ -7636,10 +8984,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A18" sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47:F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7693,7 +9041,7 @@
         <v>1992</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F2">
         <v>4</v>
@@ -7713,7 +9061,7 @@
         <v>1992</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F3">
         <v>4</v>
@@ -7733,7 +9081,7 @@
         <v>1992</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F4">
         <v>4</v>
@@ -7756,7 +9104,7 @@
         <v>1992</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -7776,7 +9124,7 @@
         <v>1992</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F6">
         <v>4</v>
@@ -7796,7 +9144,7 @@
         <v>1992</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F7">
         <v>4</v>
@@ -7816,7 +9164,7 @@
         <v>1992</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F8">
         <v>4</v>
@@ -7836,7 +9184,7 @@
         <v>1992</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -7856,7 +9204,7 @@
         <v>1992</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F10">
         <v>4</v>
@@ -7876,7 +9224,7 @@
         <v>1992</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F11">
         <v>4</v>
@@ -7896,7 +9244,7 @@
         <v>1992</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F12">
         <v>4</v>
@@ -7916,13 +9264,13 @@
         <v>1992</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F13">
         <v>4</v>
       </c>
       <c r="G13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -7939,7 +9287,7 @@
         <v>1992</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F14">
         <v>4</v>
@@ -7959,7 +9307,7 @@
         <v>1992</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F15">
         <v>4</v>
@@ -7979,7 +9327,7 @@
         <v>1992</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F16">
         <v>4</v>
@@ -7999,7 +9347,7 @@
         <v>1992</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F17">
         <v>4</v>
@@ -8019,7 +9367,7 @@
         <v>1992</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F18">
         <v>4</v>
@@ -8039,7 +9387,7 @@
         <v>1992</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F19">
         <v>4</v>
@@ -8059,7 +9407,7 @@
         <v>1992</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F20">
         <v>4</v>
@@ -8079,7 +9427,7 @@
         <v>1992</v>
       </c>
       <c r="E21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F21">
         <v>4</v>
@@ -8099,7 +9447,7 @@
         <v>1992</v>
       </c>
       <c r="E22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F22">
         <v>4</v>
@@ -8119,7 +9467,7 @@
         <v>1992</v>
       </c>
       <c r="E23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F23">
         <v>4</v>
@@ -8139,13 +9487,13 @@
         <v>1992</v>
       </c>
       <c r="E24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F24">
         <v>4</v>
       </c>
       <c r="G24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -8162,7 +9510,7 @@
         <v>1992</v>
       </c>
       <c r="E25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F25">
         <v>4</v>
@@ -8182,7 +9530,7 @@
         <v>1992</v>
       </c>
       <c r="E26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F26">
         <v>4</v>
@@ -8202,13 +9550,13 @@
         <v>1992</v>
       </c>
       <c r="E27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F27">
         <v>4</v>
       </c>
       <c r="G27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -8225,7 +9573,7 @@
         <v>1992</v>
       </c>
       <c r="E28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F28">
         <v>4</v>
@@ -8245,7 +9593,7 @@
         <v>1992</v>
       </c>
       <c r="E29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F29">
         <v>4</v>
@@ -8265,7 +9613,7 @@
         <v>1992</v>
       </c>
       <c r="E30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F30">
         <v>4</v>
@@ -8285,13 +9633,13 @@
         <v>1992</v>
       </c>
       <c r="E31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F31">
         <v>4</v>
       </c>
       <c r="G31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -8308,7 +9656,7 @@
         <v>1992</v>
       </c>
       <c r="E32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F32">
         <v>4</v>
@@ -8331,7 +9679,7 @@
         <v>1992</v>
       </c>
       <c r="E33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F33">
         <v>4</v>
@@ -8351,13 +9699,13 @@
         <v>1992</v>
       </c>
       <c r="E34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F34">
         <v>4</v>
       </c>
       <c r="G34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -8374,7 +9722,7 @@
         <v>1992</v>
       </c>
       <c r="E35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F35">
         <v>4</v>
@@ -8394,7 +9742,7 @@
         <v>1992</v>
       </c>
       <c r="E36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F36">
         <v>4</v>
@@ -8414,7 +9762,7 @@
         <v>1992</v>
       </c>
       <c r="E37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F37">
         <v>4</v>
@@ -8434,7 +9782,7 @@
         <v>1992</v>
       </c>
       <c r="E38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F38">
         <v>4</v>
@@ -8454,7 +9802,7 @@
         <v>1992</v>
       </c>
       <c r="E39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F39">
         <v>4</v>
@@ -8474,7 +9822,7 @@
         <v>1992</v>
       </c>
       <c r="E40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F40">
         <v>4</v>
@@ -8494,7 +9842,7 @@
         <v>1992</v>
       </c>
       <c r="E41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F41">
         <v>4</v>
@@ -8534,7 +9882,7 @@
         <v>1992</v>
       </c>
       <c r="E43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F43">
         <v>4</v>
@@ -8554,7 +9902,7 @@
         <v>1992</v>
       </c>
       <c r="E44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F44">
         <v>4</v>
@@ -8574,7 +9922,7 @@
         <v>1992</v>
       </c>
       <c r="E45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F45">
         <v>4</v>
@@ -8594,7 +9942,7 @@
         <v>1992</v>
       </c>
       <c r="E46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F46">
         <v>4</v>
@@ -8614,7 +9962,7 @@
         <v>1992</v>
       </c>
       <c r="E47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F47">
         <v>4</v>
@@ -8634,7 +9982,7 @@
         <v>1992</v>
       </c>
       <c r="E48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F48">
         <v>4</v>
@@ -8654,9 +10002,229 @@
         <v>1992</v>
       </c>
       <c r="E49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50">
+        <v>1992</v>
+      </c>
+      <c r="E50" t="s">
+        <v>53</v>
+      </c>
+      <c r="F50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" t="s">
+        <v>75</v>
+      </c>
+      <c r="D51">
+        <v>1992</v>
+      </c>
+      <c r="E51" t="s">
+        <v>53</v>
+      </c>
+      <c r="F51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52">
+        <v>1992</v>
+      </c>
+      <c r="E52" t="s">
+        <v>53</v>
+      </c>
+      <c r="F52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53">
+        <v>1992</v>
+      </c>
+      <c r="E53" t="s">
+        <v>53</v>
+      </c>
+      <c r="F53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54">
+        <v>1992</v>
+      </c>
+      <c r="E54" t="s">
+        <v>53</v>
+      </c>
+      <c r="F54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55" t="s">
+        <v>75</v>
+      </c>
+      <c r="D55">
+        <v>1992</v>
+      </c>
+      <c r="E55" t="s">
+        <v>53</v>
+      </c>
+      <c r="F55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>34090</v>
+      </c>
+      <c r="B56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56">
+        <v>1992</v>
+      </c>
+      <c r="E56" t="s">
+        <v>53</v>
+      </c>
+      <c r="F56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>34093</v>
+      </c>
+      <c r="B57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57">
+        <v>1992</v>
+      </c>
+      <c r="E57" t="s">
+        <v>53</v>
+      </c>
+      <c r="F57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>34097</v>
+      </c>
+      <c r="B58" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58">
+        <v>1992</v>
+      </c>
+      <c r="E58" t="s">
+        <v>53</v>
+      </c>
+      <c r="F58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>34105</v>
+      </c>
+      <c r="B59" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" t="s">
+        <v>71</v>
+      </c>
+      <c r="D59">
+        <v>1992</v>
+      </c>
+      <c r="E59" t="s">
+        <v>53</v>
+      </c>
+      <c r="F59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>34108</v>
+      </c>
+      <c r="B60" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" t="s">
+        <v>71</v>
+      </c>
+      <c r="D60">
+        <v>1992</v>
+      </c>
+      <c r="E60" t="s">
+        <v>53</v>
+      </c>
+      <c r="F60">
         <v>4</v>
       </c>
     </row>
@@ -8667,10 +10235,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A18" sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56:E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8725,7 +10293,7 @@
         <v>1992</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -8745,7 +10313,7 @@
         <v>1992</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -8765,7 +10333,7 @@
         <v>1992</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -8785,7 +10353,7 @@
         <v>1992</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -8805,13 +10373,13 @@
         <v>1992</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6">
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -8828,7 +10396,7 @@
         <v>1992</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -8848,7 +10416,7 @@
         <v>1992</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -9294,7 +10862,7 @@
         <v>5</v>
       </c>
       <c r="G30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -9471,7 +11039,7 @@
         <v>1992</v>
       </c>
       <c r="E39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F39">
         <v>5</v>
@@ -9491,7 +11059,7 @@
         <v>1992</v>
       </c>
       <c r="E40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F40">
         <v>5</v>
@@ -9511,7 +11079,7 @@
         <v>1992</v>
       </c>
       <c r="E41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F41">
         <v>5</v>
@@ -9531,7 +11099,7 @@
         <v>1992</v>
       </c>
       <c r="E42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F42">
         <v>5</v>
@@ -9551,7 +11119,7 @@
         <v>1992</v>
       </c>
       <c r="E43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F43">
         <v>5</v>
@@ -9571,7 +11139,7 @@
         <v>1992</v>
       </c>
       <c r="E44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F44">
         <v>5</v>
@@ -9591,7 +11159,7 @@
         <v>1992</v>
       </c>
       <c r="E45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F45">
         <v>5</v>
@@ -9614,7 +11182,7 @@
         <v>1992</v>
       </c>
       <c r="E46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F46">
         <v>5</v>
@@ -9634,13 +11202,13 @@
         <v>1992</v>
       </c>
       <c r="E47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F47">
         <v>5</v>
       </c>
       <c r="G47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -9657,7 +11225,7 @@
         <v>1992</v>
       </c>
       <c r="E48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F48">
         <v>5</v>
@@ -9677,9 +11245,229 @@
         <v>1992</v>
       </c>
       <c r="E49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50">
+        <v>1992</v>
+      </c>
+      <c r="E50" t="s">
+        <v>50</v>
+      </c>
+      <c r="F50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" t="s">
+        <v>75</v>
+      </c>
+      <c r="D51">
+        <v>1992</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52">
+        <v>1992</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53">
+        <v>1992</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54">
+        <v>1992</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55" t="s">
+        <v>75</v>
+      </c>
+      <c r="D55">
+        <v>1992</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>34090</v>
+      </c>
+      <c r="B56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56">
+        <v>1992</v>
+      </c>
+      <c r="E56" t="s">
+        <v>59</v>
+      </c>
+      <c r="F56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>34093</v>
+      </c>
+      <c r="B57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57">
+        <v>1992</v>
+      </c>
+      <c r="E57" t="s">
+        <v>59</v>
+      </c>
+      <c r="F57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>34097</v>
+      </c>
+      <c r="B58" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58">
+        <v>1992</v>
+      </c>
+      <c r="E58" t="s">
+        <v>59</v>
+      </c>
+      <c r="F58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>34105</v>
+      </c>
+      <c r="B59" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" t="s">
+        <v>71</v>
+      </c>
+      <c r="D59">
+        <v>1992</v>
+      </c>
+      <c r="E59" t="s">
+        <v>59</v>
+      </c>
+      <c r="F59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>34108</v>
+      </c>
+      <c r="B60" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" t="s">
+        <v>71</v>
+      </c>
+      <c r="D60">
+        <v>1992</v>
+      </c>
+      <c r="E60" t="s">
+        <v>59</v>
+      </c>
+      <c r="F60">
         <v>5</v>
       </c>
     </row>
@@ -9690,10 +11478,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A22" sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9748,7 +11536,7 @@
         <v>1992</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F2">
         <v>6</v>
@@ -9768,7 +11556,7 @@
         <v>1992</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F3">
         <v>6</v>
@@ -9788,7 +11576,7 @@
         <v>1992</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F4">
         <v>6</v>
@@ -9808,7 +11596,7 @@
         <v>1992</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F5">
         <v>6</v>
@@ -9828,7 +11616,7 @@
         <v>1992</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F6">
         <v>6</v>
@@ -9848,7 +11636,7 @@
         <v>1992</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -9868,7 +11656,7 @@
         <v>1992</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F8">
         <v>6</v>
@@ -9888,7 +11676,7 @@
         <v>1992</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F9">
         <v>6</v>
@@ -9908,7 +11696,7 @@
         <v>1992</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F10">
         <v>6</v>
@@ -9928,7 +11716,7 @@
         <v>1992</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11">
         <v>6</v>
@@ -9948,7 +11736,7 @@
         <v>1992</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F12">
         <v>6</v>
@@ -9968,7 +11756,7 @@
         <v>1992</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F13">
         <v>6</v>
@@ -9988,7 +11776,7 @@
         <v>1992</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F14">
         <v>6</v>
@@ -10008,13 +11796,13 @@
         <v>1992</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F15">
         <v>6</v>
       </c>
       <c r="G15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -10031,7 +11819,7 @@
         <v>1992</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F16">
         <v>6</v>
@@ -10051,7 +11839,7 @@
         <v>1992</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F17">
         <v>6</v>
@@ -10071,7 +11859,7 @@
         <v>1992</v>
       </c>
       <c r="E18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F18">
         <v>6</v>
@@ -10091,7 +11879,7 @@
         <v>1992</v>
       </c>
       <c r="E19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F19">
         <v>6</v>
@@ -10111,7 +11899,7 @@
         <v>1992</v>
       </c>
       <c r="E20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F20">
         <v>6</v>
@@ -10131,7 +11919,7 @@
         <v>1992</v>
       </c>
       <c r="E21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F21">
         <v>6</v>
@@ -10151,7 +11939,7 @@
         <v>1992</v>
       </c>
       <c r="E22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F22">
         <v>6</v>
@@ -10171,7 +11959,7 @@
         <v>1992</v>
       </c>
       <c r="E23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F23">
         <v>6</v>
@@ -10191,7 +11979,7 @@
         <v>1992</v>
       </c>
       <c r="E24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F24">
         <v>6</v>
@@ -10211,7 +11999,7 @@
         <v>1992</v>
       </c>
       <c r="E25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F25">
         <v>6</v>
@@ -10231,7 +12019,7 @@
         <v>1992</v>
       </c>
       <c r="E26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F26">
         <v>6</v>
@@ -10251,7 +12039,7 @@
         <v>1992</v>
       </c>
       <c r="E27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F27">
         <v>6</v>
@@ -10271,7 +12059,7 @@
         <v>1992</v>
       </c>
       <c r="E28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F28">
         <v>6</v>
@@ -10291,7 +12079,7 @@
         <v>1992</v>
       </c>
       <c r="E29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F29">
         <v>6</v>
@@ -10311,7 +12099,7 @@
         <v>1992</v>
       </c>
       <c r="E30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F30">
         <v>6</v>
@@ -10331,7 +12119,7 @@
         <v>1992</v>
       </c>
       <c r="E31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F31">
         <v>6</v>
@@ -10351,7 +12139,7 @@
         <v>1992</v>
       </c>
       <c r="E32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F32">
         <v>6</v>
@@ -10371,7 +12159,7 @@
         <v>1992</v>
       </c>
       <c r="E33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F33">
         <v>6</v>
@@ -10391,7 +12179,7 @@
         <v>1992</v>
       </c>
       <c r="E34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F34">
         <v>6</v>
@@ -10411,7 +12199,7 @@
         <v>1992</v>
       </c>
       <c r="E35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F35">
         <v>6</v>
@@ -10431,7 +12219,7 @@
         <v>1992</v>
       </c>
       <c r="E36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F36">
         <v>6</v>
@@ -10451,13 +12239,13 @@
         <v>1992</v>
       </c>
       <c r="E37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F37">
         <v>6</v>
       </c>
       <c r="G37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -10474,7 +12262,7 @@
         <v>1992</v>
       </c>
       <c r="E38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F38">
         <v>6</v>
@@ -10494,7 +12282,7 @@
         <v>1992</v>
       </c>
       <c r="E39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F39">
         <v>6</v>
@@ -10514,7 +12302,7 @@
         <v>1992</v>
       </c>
       <c r="E40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F40">
         <v>6</v>
@@ -10534,7 +12322,7 @@
         <v>1992</v>
       </c>
       <c r="E41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F41">
         <v>6</v>
@@ -10554,7 +12342,7 @@
         <v>1992</v>
       </c>
       <c r="E42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F42">
         <v>6</v>
@@ -10574,7 +12362,7 @@
         <v>1992</v>
       </c>
       <c r="E43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F43">
         <v>6</v>
@@ -10594,7 +12382,7 @@
         <v>1992</v>
       </c>
       <c r="E44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F44">
         <v>6</v>
@@ -10614,7 +12402,7 @@
         <v>1992</v>
       </c>
       <c r="E45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F45">
         <v>6</v>
@@ -10634,7 +12422,7 @@
         <v>1992</v>
       </c>
       <c r="E46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F46">
         <v>6</v>
@@ -10654,7 +12442,7 @@
         <v>1992</v>
       </c>
       <c r="E47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F47">
         <v>6</v>
@@ -10674,7 +12462,7 @@
         <v>1992</v>
       </c>
       <c r="E48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F48">
         <v>6</v>
@@ -10694,9 +12482,229 @@
         <v>1992</v>
       </c>
       <c r="E49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50">
+        <v>1992</v>
+      </c>
+      <c r="E50" t="s">
+        <v>58</v>
+      </c>
+      <c r="F50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" t="s">
+        <v>75</v>
+      </c>
+      <c r="D51">
+        <v>1992</v>
+      </c>
+      <c r="E51" t="s">
+        <v>47</v>
+      </c>
+      <c r="F51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52">
+        <v>1992</v>
+      </c>
+      <c r="E52" t="s">
+        <v>47</v>
+      </c>
+      <c r="F52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53">
+        <v>1992</v>
+      </c>
+      <c r="E53" t="s">
+        <v>47</v>
+      </c>
+      <c r="F53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54">
+        <v>1992</v>
+      </c>
+      <c r="E54" t="s">
+        <v>47</v>
+      </c>
+      <c r="F54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55" t="s">
+        <v>75</v>
+      </c>
+      <c r="D55">
+        <v>1992</v>
+      </c>
+      <c r="E55" t="s">
+        <v>47</v>
+      </c>
+      <c r="F55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>34090</v>
+      </c>
+      <c r="B56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56">
+        <v>1992</v>
+      </c>
+      <c r="E56" t="s">
+        <v>47</v>
+      </c>
+      <c r="F56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>34093</v>
+      </c>
+      <c r="B57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57">
+        <v>1992</v>
+      </c>
+      <c r="E57" t="s">
+        <v>47</v>
+      </c>
+      <c r="F57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>34097</v>
+      </c>
+      <c r="B58" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58">
+        <v>1992</v>
+      </c>
+      <c r="E58" t="s">
+        <v>47</v>
+      </c>
+      <c r="F58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>34105</v>
+      </c>
+      <c r="B59" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" t="s">
+        <v>71</v>
+      </c>
+      <c r="D59">
+        <v>1992</v>
+      </c>
+      <c r="E59" t="s">
+        <v>47</v>
+      </c>
+      <c r="F59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>34108</v>
+      </c>
+      <c r="B60" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" t="s">
+        <v>71</v>
+      </c>
+      <c r="D60">
+        <v>1992</v>
+      </c>
+      <c r="E60" t="s">
+        <v>47</v>
+      </c>
+      <c r="F60">
         <v>6</v>
       </c>
     </row>
@@ -10707,10 +12715,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A28" sqref="A1:A1048576"/>
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11717,6 +13725,226 @@
         <v>7</v>
       </c>
     </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50">
+        <v>1992</v>
+      </c>
+      <c r="E50" t="s">
+        <v>42</v>
+      </c>
+      <c r="F50">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" t="s">
+        <v>75</v>
+      </c>
+      <c r="D51">
+        <v>1992</v>
+      </c>
+      <c r="E51" t="s">
+        <v>42</v>
+      </c>
+      <c r="F51">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52">
+        <v>1992</v>
+      </c>
+      <c r="E52" t="s">
+        <v>42</v>
+      </c>
+      <c r="F52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53">
+        <v>1992</v>
+      </c>
+      <c r="E53" t="s">
+        <v>42</v>
+      </c>
+      <c r="F53">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54">
+        <v>1992</v>
+      </c>
+      <c r="E54" t="s">
+        <v>42</v>
+      </c>
+      <c r="F54">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55" t="s">
+        <v>75</v>
+      </c>
+      <c r="D55">
+        <v>1992</v>
+      </c>
+      <c r="E55" t="s">
+        <v>42</v>
+      </c>
+      <c r="F55">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>34090</v>
+      </c>
+      <c r="B56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56">
+        <v>1992</v>
+      </c>
+      <c r="E56" t="s">
+        <v>42</v>
+      </c>
+      <c r="F56">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>34093</v>
+      </c>
+      <c r="B57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57">
+        <v>1992</v>
+      </c>
+      <c r="E57" t="s">
+        <v>51</v>
+      </c>
+      <c r="F57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>34097</v>
+      </c>
+      <c r="B58" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58">
+        <v>1992</v>
+      </c>
+      <c r="E58" t="s">
+        <v>42</v>
+      </c>
+      <c r="F58">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>34105</v>
+      </c>
+      <c r="B59" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" t="s">
+        <v>71</v>
+      </c>
+      <c r="D59">
+        <v>1992</v>
+      </c>
+      <c r="E59" t="s">
+        <v>42</v>
+      </c>
+      <c r="F59">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>34108</v>
+      </c>
+      <c r="B60" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" t="s">
+        <v>71</v>
+      </c>
+      <c r="D60">
+        <v>1992</v>
+      </c>
+      <c r="E60" t="s">
+        <v>42</v>
+      </c>
+      <c r="F60">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -11724,10 +13952,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A18" sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11781,7 +14009,7 @@
         <v>1992</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F2">
         <v>8</v>
@@ -11801,7 +14029,7 @@
         <v>1992</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F3">
         <v>8</v>
@@ -11821,7 +14049,7 @@
         <v>1992</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F4">
         <v>8</v>
@@ -11841,7 +14069,7 @@
         <v>1992</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F5">
         <v>8</v>
@@ -11861,7 +14089,7 @@
         <v>1992</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F6">
         <v>8</v>
@@ -11881,7 +14109,7 @@
         <v>1992</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F7">
         <v>8</v>
@@ -11901,7 +14129,7 @@
         <v>1992</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F8">
         <v>8</v>
@@ -11921,7 +14149,7 @@
         <v>1992</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9">
         <v>8</v>
@@ -11941,7 +14169,7 @@
         <v>1992</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F10">
         <v>8</v>
@@ -11961,7 +14189,7 @@
         <v>1992</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F11">
         <v>8</v>
@@ -11981,7 +14209,7 @@
         <v>1992</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F12">
         <v>8</v>
@@ -12001,7 +14229,7 @@
         <v>1992</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F13">
         <v>8</v>
@@ -12021,7 +14249,7 @@
         <v>1992</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F14">
         <v>8</v>
@@ -12041,7 +14269,7 @@
         <v>1992</v>
       </c>
       <c r="E15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F15">
         <v>8</v>
@@ -12061,7 +14289,7 @@
         <v>1992</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F16">
         <v>8</v>
@@ -12081,7 +14309,7 @@
         <v>1992</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F17">
         <v>8</v>
@@ -12101,7 +14329,7 @@
         <v>1992</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F18">
         <v>8</v>
@@ -12121,7 +14349,7 @@
         <v>1992</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F19">
         <v>8</v>
@@ -12141,7 +14369,7 @@
         <v>1992</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F20">
         <v>8</v>
@@ -12161,7 +14389,7 @@
         <v>1992</v>
       </c>
       <c r="E21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F21">
         <v>8</v>
@@ -12181,7 +14409,7 @@
         <v>1992</v>
       </c>
       <c r="E22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F22">
         <v>8</v>
@@ -12201,7 +14429,7 @@
         <v>1992</v>
       </c>
       <c r="E23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F23">
         <v>8</v>
@@ -12221,7 +14449,7 @@
         <v>1992</v>
       </c>
       <c r="E24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F24">
         <v>8</v>
@@ -12241,7 +14469,7 @@
         <v>1992</v>
       </c>
       <c r="E25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F25">
         <v>8</v>
@@ -12261,7 +14489,7 @@
         <v>1992</v>
       </c>
       <c r="E26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F26">
         <v>8</v>
@@ -12284,7 +14512,7 @@
         <v>1992</v>
       </c>
       <c r="E27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F27">
         <v>8</v>
@@ -12304,7 +14532,7 @@
         <v>1992</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F28">
         <v>8</v>
@@ -12324,7 +14552,7 @@
         <v>1992</v>
       </c>
       <c r="E29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F29">
         <v>8</v>
@@ -12344,7 +14572,7 @@
         <v>1992</v>
       </c>
       <c r="E30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F30">
         <v>8</v>
@@ -12364,7 +14592,7 @@
         <v>1992</v>
       </c>
       <c r="E31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F31">
         <v>8</v>
@@ -12384,7 +14612,7 @@
         <v>1992</v>
       </c>
       <c r="E32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F32">
         <v>8</v>
@@ -12404,7 +14632,7 @@
         <v>1992</v>
       </c>
       <c r="E33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F33">
         <v>8</v>
@@ -12424,7 +14652,7 @@
         <v>1992</v>
       </c>
       <c r="E34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F34">
         <v>8</v>
@@ -12444,7 +14672,7 @@
         <v>1992</v>
       </c>
       <c r="E35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F35">
         <v>8</v>
@@ -12464,13 +14692,13 @@
         <v>1992</v>
       </c>
       <c r="E36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F36">
         <v>8</v>
       </c>
       <c r="G36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -12487,7 +14715,7 @@
         <v>1992</v>
       </c>
       <c r="E37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F37">
         <v>8</v>
@@ -12547,7 +14775,7 @@
         <v>1992</v>
       </c>
       <c r="E40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F40">
         <v>8</v>
@@ -12567,7 +14795,7 @@
         <v>1992</v>
       </c>
       <c r="E41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F41">
         <v>8</v>
@@ -12593,7 +14821,7 @@
         <v>8</v>
       </c>
       <c r="G42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -12610,7 +14838,7 @@
         <v>1992</v>
       </c>
       <c r="E43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F43">
         <v>8</v>
@@ -12630,7 +14858,7 @@
         <v>1992</v>
       </c>
       <c r="E44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F44">
         <v>8</v>
@@ -12650,7 +14878,7 @@
         <v>1992</v>
       </c>
       <c r="E45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F45">
         <v>8</v>
@@ -12670,7 +14898,7 @@
         <v>1992</v>
       </c>
       <c r="E46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F46">
         <v>8</v>
@@ -12690,7 +14918,7 @@
         <v>1992</v>
       </c>
       <c r="E47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F47">
         <v>8</v>
@@ -12713,13 +14941,13 @@
         <v>1992</v>
       </c>
       <c r="E48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F48">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>34083</v>
       </c>
@@ -12733,9 +14961,232 @@
         <v>1992</v>
       </c>
       <c r="E49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50">
+        <v>1992</v>
+      </c>
+      <c r="E50" t="s">
+        <v>54</v>
+      </c>
+      <c r="F50">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" t="s">
+        <v>75</v>
+      </c>
+      <c r="D51">
+        <v>1992</v>
+      </c>
+      <c r="E51" t="s">
+        <v>54</v>
+      </c>
+      <c r="F51">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52">
+        <v>1992</v>
+      </c>
+      <c r="E52" t="s">
+        <v>54</v>
+      </c>
+      <c r="F52">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53">
+        <v>1992</v>
+      </c>
+      <c r="E53" t="s">
+        <v>54</v>
+      </c>
+      <c r="F53">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54">
+        <v>1992</v>
+      </c>
+      <c r="E54" t="s">
+        <v>46</v>
+      </c>
+      <c r="F54">
+        <v>8</v>
+      </c>
+      <c r="G54" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55" t="s">
+        <v>75</v>
+      </c>
+      <c r="D55">
+        <v>1992</v>
+      </c>
+      <c r="E55" t="s">
+        <v>54</v>
+      </c>
+      <c r="F55">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>34090</v>
+      </c>
+      <c r="B56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56">
+        <v>1992</v>
+      </c>
+      <c r="E56" t="s">
+        <v>54</v>
+      </c>
+      <c r="F56">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>34093</v>
+      </c>
+      <c r="B57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57">
+        <v>1992</v>
+      </c>
+      <c r="E57" t="s">
+        <v>54</v>
+      </c>
+      <c r="F57">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>34097</v>
+      </c>
+      <c r="B58" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58">
+        <v>1992</v>
+      </c>
+      <c r="E58" t="s">
+        <v>54</v>
+      </c>
+      <c r="F58">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>34105</v>
+      </c>
+      <c r="B59" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" t="s">
+        <v>71</v>
+      </c>
+      <c r="D59">
+        <v>1992</v>
+      </c>
+      <c r="E59" t="s">
+        <v>54</v>
+      </c>
+      <c r="F59">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>34108</v>
+      </c>
+      <c r="B60" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" t="s">
+        <v>71</v>
+      </c>
+      <c r="D60">
+        <v>1992</v>
+      </c>
+      <c r="E60" t="s">
+        <v>54</v>
+      </c>
+      <c r="F60">
         <v>8</v>
       </c>
     </row>
@@ -12746,10 +15197,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A40" sqref="A1:A1048576"/>
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12803,7 +15254,7 @@
         <v>1992</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F2">
         <v>9</v>
@@ -12823,7 +15274,7 @@
         <v>1992</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F3">
         <v>9</v>
@@ -12843,7 +15294,7 @@
         <v>1992</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4">
         <v>9</v>
@@ -12863,7 +15314,7 @@
         <v>1992</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F5">
         <v>9</v>
@@ -12943,7 +15394,7 @@
         <v>1992</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F9">
         <v>9</v>
@@ -12963,7 +15414,7 @@
         <v>1992</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F10">
         <v>9</v>
@@ -12983,7 +15434,7 @@
         <v>1992</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F11">
         <v>9</v>
@@ -13003,7 +15454,7 @@
         <v>1992</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F12">
         <v>9</v>
@@ -13023,7 +15474,7 @@
         <v>1992</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F13">
         <v>9</v>
@@ -13083,7 +15534,7 @@
         <v>1992</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F16">
         <v>9</v>
@@ -13103,7 +15554,7 @@
         <v>1992</v>
       </c>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F17">
         <v>9</v>
@@ -13123,7 +15574,7 @@
         <v>1992</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F18">
         <v>9</v>
@@ -13143,7 +15594,7 @@
         <v>1992</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F19">
         <v>9</v>
@@ -13163,7 +15614,7 @@
         <v>1992</v>
       </c>
       <c r="E20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F20">
         <v>9</v>
@@ -13183,7 +15634,7 @@
         <v>1992</v>
       </c>
       <c r="E21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F21">
         <v>9</v>
@@ -13203,7 +15654,7 @@
         <v>1992</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F22">
         <v>9</v>
@@ -13223,7 +15674,7 @@
         <v>1992</v>
       </c>
       <c r="E23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F23">
         <v>9</v>
@@ -13283,7 +15734,7 @@
         <v>1992</v>
       </c>
       <c r="E26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F26">
         <v>9</v>
@@ -13303,7 +15754,7 @@
         <v>1992</v>
       </c>
       <c r="E27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F27">
         <v>9</v>
@@ -13323,7 +15774,7 @@
         <v>1992</v>
       </c>
       <c r="E28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F28">
         <v>9</v>
@@ -13343,7 +15794,7 @@
         <v>1992</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F29">
         <v>9</v>
@@ -13363,7 +15814,7 @@
         <v>1992</v>
       </c>
       <c r="E30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F30">
         <v>9</v>
@@ -13383,7 +15834,7 @@
         <v>1992</v>
       </c>
       <c r="E31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F31">
         <v>9</v>
@@ -13403,7 +15854,7 @@
         <v>1992</v>
       </c>
       <c r="E32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F32">
         <v>9</v>
@@ -13423,7 +15874,7 @@
         <v>1992</v>
       </c>
       <c r="E33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F33">
         <v>9</v>
@@ -13446,7 +15897,7 @@
         <v>1992</v>
       </c>
       <c r="E34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F34">
         <v>9</v>
@@ -13466,7 +15917,7 @@
         <v>1992</v>
       </c>
       <c r="E35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F35">
         <v>9</v>
@@ -13486,7 +15937,7 @@
         <v>1992</v>
       </c>
       <c r="E36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F36">
         <v>9</v>
@@ -13506,7 +15957,7 @@
         <v>1992</v>
       </c>
       <c r="E37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F37">
         <v>9</v>
@@ -13526,7 +15977,7 @@
         <v>1992</v>
       </c>
       <c r="E38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F38">
         <v>9</v>
@@ -13546,13 +15997,13 @@
         <v>1992</v>
       </c>
       <c r="E39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F39">
         <v>9</v>
       </c>
       <c r="G39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -13569,7 +16020,7 @@
         <v>1992</v>
       </c>
       <c r="E40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F40">
         <v>9</v>
@@ -13589,13 +16040,13 @@
         <v>1992</v>
       </c>
       <c r="E41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F41">
         <v>9</v>
       </c>
       <c r="G41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -13612,7 +16063,7 @@
         <v>1992</v>
       </c>
       <c r="E42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F42">
         <v>9</v>
@@ -13632,7 +16083,7 @@
         <v>1992</v>
       </c>
       <c r="E43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F43">
         <v>9</v>
@@ -13652,7 +16103,7 @@
         <v>1992</v>
       </c>
       <c r="E44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F44">
         <v>9</v>
@@ -13672,7 +16123,7 @@
         <v>1992</v>
       </c>
       <c r="E45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F45">
         <v>9</v>
@@ -13692,7 +16143,7 @@
         <v>1992</v>
       </c>
       <c r="E46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F46">
         <v>9</v>
@@ -13712,7 +16163,7 @@
         <v>1992</v>
       </c>
       <c r="E47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F47">
         <v>9</v>
@@ -13732,7 +16183,7 @@
         <v>1992</v>
       </c>
       <c r="E48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F48">
         <v>9</v>
@@ -13752,13 +16203,242 @@
         <v>1992</v>
       </c>
       <c r="E49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F49">
         <v>9</v>
       </c>
       <c r="G49" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50">
+        <v>1992</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" t="s">
+        <v>75</v>
+      </c>
+      <c r="D51">
+        <v>1992</v>
+      </c>
+      <c r="E51" t="s">
+        <v>56</v>
+      </c>
+      <c r="F51">
+        <v>9</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52">
+        <v>1992</v>
+      </c>
+      <c r="E52" t="s">
+        <v>56</v>
+      </c>
+      <c r="F52">
+        <v>9</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53">
+        <v>1992</v>
+      </c>
+      <c r="E53" t="s">
+        <v>56</v>
+      </c>
+      <c r="F53">
+        <v>9</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54">
+        <v>1992</v>
+      </c>
+      <c r="E54" t="s">
+        <v>51</v>
+      </c>
+      <c r="F54">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55" t="s">
+        <v>75</v>
+      </c>
+      <c r="D55">
+        <v>1992</v>
+      </c>
+      <c r="E55" t="s">
+        <v>56</v>
+      </c>
+      <c r="F55">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>34090</v>
+      </c>
+      <c r="B56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56">
+        <v>1992</v>
+      </c>
+      <c r="E56" t="s">
+        <v>56</v>
+      </c>
+      <c r="F56">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>34093</v>
+      </c>
+      <c r="B57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57">
+        <v>1992</v>
+      </c>
+      <c r="E57" t="s">
+        <v>56</v>
+      </c>
+      <c r="F57">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>34097</v>
+      </c>
+      <c r="B58" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58">
+        <v>1992</v>
+      </c>
+      <c r="E58" t="s">
+        <v>56</v>
+      </c>
+      <c r="F58">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>34105</v>
+      </c>
+      <c r="B59" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" t="s">
+        <v>71</v>
+      </c>
+      <c r="D59">
+        <v>1992</v>
+      </c>
+      <c r="E59" t="s">
+        <v>56</v>
+      </c>
+      <c r="F59">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>34108</v>
+      </c>
+      <c r="B60" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" t="s">
+        <v>71</v>
+      </c>
+      <c r="D60">
+        <v>1992</v>
+      </c>
+      <c r="E60" t="s">
+        <v>56</v>
+      </c>
+      <c r="F60">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/data/apps-master/1992.xlsx
+++ b/data/apps-master/1992.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisowen/Desktop/tranmere-web/data/apps-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904F07C7-69C3-424A-9EE5-F1847C84A3F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CACC8D-04D0-7345-BBFA-2D4549A94580}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="16320" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="16320" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2463" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2464" uniqueCount="87">
   <si>
     <t>Date</t>
   </si>
@@ -1139,7 +1139,7 @@
   <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="F60" sqref="A50:F60"/>
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2372,7 +2372,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
       <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
@@ -3630,7 +3630,7 @@
   <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D58" sqref="A56:D58"/>
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4858,6 +4858,9 @@
       <c r="F60">
         <v>11</v>
       </c>
+      <c r="G60" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4868,8 +4871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C667EFD-6457-7247-A922-3280CF622987}">
   <dimension ref="A1:N92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5109,45 +5112,45 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>33873</v>
+      <c r="A13" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="D13">
         <v>1992</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>33873</v>
+      <c r="A14" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="D14">
         <v>1992</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>33876</v>
+        <v>33873</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -5156,15 +5159,15 @@
         <v>1992</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>33876</v>
+        <v>33873</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
@@ -5173,7 +5176,7 @@
         <v>1992</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -5190,15 +5193,15 @@
         <v>1992</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>33880</v>
+        <v>33876</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
@@ -5207,15 +5210,15 @@
         <v>1992</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>33880</v>
+        <v>33876</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
@@ -5241,15 +5244,15 @@
         <v>1992</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>33894</v>
+        <v>33880</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
@@ -5263,10 +5266,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>33894</v>
+        <v>33880</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
@@ -5275,7 +5278,7 @@
         <v>1992</v>
       </c>
       <c r="E22" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -5292,7 +5295,7 @@
         <v>1992</v>
       </c>
       <c r="E23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -5309,15 +5312,15 @@
         <v>1992</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>33901</v>
+        <v>33894</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
@@ -5326,15 +5329,15 @@
         <v>1992</v>
       </c>
       <c r="E25" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>33901</v>
+        <v>33894</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
         <v>11</v>
@@ -5343,15 +5346,15 @@
         <v>1992</v>
       </c>
       <c r="E26" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>33907</v>
+        <v>33901</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
         <v>11</v>
@@ -5360,15 +5363,15 @@
         <v>1992</v>
       </c>
       <c r="E27" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>33911</v>
+        <v>33901</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
@@ -5377,15 +5380,15 @@
         <v>1992</v>
       </c>
       <c r="E28" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>33911</v>
+        <v>33907</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
         <v>11</v>
@@ -5394,7 +5397,7 @@
         <v>1992</v>
       </c>
       <c r="E29" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -5411,15 +5414,15 @@
         <v>1992</v>
       </c>
       <c r="E30" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>33915</v>
+        <v>33911</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31" t="s">
         <v>11</v>
@@ -5428,15 +5431,15 @@
         <v>1992</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>33922</v>
+        <v>33911</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C32" t="s">
         <v>11</v>
@@ -5445,15 +5448,15 @@
         <v>1992</v>
       </c>
       <c r="E32" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>33922</v>
+        <v>33915</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
@@ -5479,15 +5482,15 @@
         <v>1992</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>33936</v>
+        <v>33922</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C35" t="s">
         <v>11</v>
@@ -5496,15 +5499,15 @@
         <v>1992</v>
       </c>
       <c r="E35" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>33936</v>
+        <v>33922</v>
       </c>
       <c r="B36" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C36" t="s">
         <v>11</v>
@@ -5513,32 +5516,32 @@
         <v>1992</v>
       </c>
       <c r="E36" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>33942</v>
+      <c r="A37" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="D37">
         <v>1992</v>
       </c>
       <c r="E37" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>33942</v>
+        <v>33936</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C38" t="s">
         <v>11</v>
@@ -5552,10 +5555,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>33942</v>
+        <v>33936</v>
       </c>
       <c r="B39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C39" t="s">
         <v>11</v>
@@ -5581,7 +5584,7 @@
         <v>1992</v>
       </c>
       <c r="E40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -5598,15 +5601,15 @@
         <v>1992</v>
       </c>
       <c r="E41" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>33957</v>
+        <v>33942</v>
       </c>
       <c r="B42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C42" t="s">
         <v>11</v>
@@ -5620,10 +5623,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>33957</v>
+        <v>33942</v>
       </c>
       <c r="B43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C43" t="s">
         <v>11</v>
@@ -5632,15 +5635,15 @@
         <v>1992</v>
       </c>
       <c r="E43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>33957</v>
+        <v>33942</v>
       </c>
       <c r="B44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C44" t="s">
         <v>11</v>
@@ -5649,83 +5652,83 @@
         <v>1992</v>
       </c>
       <c r="E44" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <v>33964</v>
+      <c r="A45" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="B45" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="C45" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="D45">
         <v>1992</v>
       </c>
       <c r="E45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" t="s">
+        <v>75</v>
+      </c>
+      <c r="D46">
+        <v>1992</v>
+      </c>
+      <c r="E46" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" t="s">
+        <v>75</v>
+      </c>
+      <c r="D47">
+        <v>1992</v>
+      </c>
+      <c r="E47" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
-        <v>33966</v>
-      </c>
-      <c r="B46" t="s">
-        <v>34</v>
-      </c>
-      <c r="C46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46">
-        <v>1992</v>
-      </c>
-      <c r="E46" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
-        <v>33971</v>
-      </c>
-      <c r="B47" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" t="s">
-        <v>36</v>
-      </c>
-      <c r="D47">
-        <v>1992</v>
-      </c>
-      <c r="E47" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>33971</v>
+        <v>33957</v>
       </c>
       <c r="B48" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C48" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D48">
         <v>1992</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>33978</v>
+        <v>33957</v>
       </c>
       <c r="B49" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C49" t="s">
         <v>11</v>
@@ -5739,10 +5742,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>33978</v>
+        <v>33957</v>
       </c>
       <c r="B50" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C50" t="s">
         <v>11</v>
@@ -5751,46 +5754,46 @@
         <v>1992</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>33981</v>
+        <v>33964</v>
       </c>
       <c r="B51" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C51" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D51">
         <v>1992</v>
       </c>
       <c r="E51" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>33981</v>
+        <v>33966</v>
       </c>
       <c r="B52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C52" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D52">
         <v>1992</v>
       </c>
       <c r="E52" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>33981</v>
+        <v>33971</v>
       </c>
       <c r="B53" t="s">
         <v>35</v>
@@ -5802,32 +5805,32 @@
         <v>1992</v>
       </c>
       <c r="E53" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>33984</v>
+        <v>33971</v>
       </c>
       <c r="B54" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C54" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D54">
         <v>1992</v>
       </c>
       <c r="E54" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>33984</v>
+        <v>33978</v>
       </c>
       <c r="B55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C55" t="s">
         <v>11</v>
@@ -5841,10 +5844,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>33984</v>
+        <v>33978</v>
       </c>
       <c r="B56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C56" t="s">
         <v>11</v>
@@ -5853,32 +5856,32 @@
         <v>1992</v>
       </c>
       <c r="E56" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>33984</v>
+        <v>33981</v>
       </c>
       <c r="B57" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C57" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D57">
         <v>1992</v>
       </c>
       <c r="E57" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>33992</v>
+        <v>33981</v>
       </c>
       <c r="B58" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C58" t="s">
         <v>36</v>
@@ -5887,32 +5890,32 @@
         <v>1992</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>33995</v>
+        <v>33981</v>
       </c>
       <c r="B59" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C59" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D59">
         <v>1992</v>
       </c>
       <c r="E59" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>34006</v>
+        <v>33984</v>
       </c>
       <c r="B60" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C60" t="s">
         <v>11</v>
@@ -5921,15 +5924,15 @@
         <v>1992</v>
       </c>
       <c r="E60" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>34034</v>
+        <v>33984</v>
       </c>
       <c r="B61" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C61" t="s">
         <v>11</v>
@@ -5938,15 +5941,15 @@
         <v>1992</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>34034</v>
+        <v>33984</v>
       </c>
       <c r="B62" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C62" t="s">
         <v>11</v>
@@ -5955,15 +5958,15 @@
         <v>1992</v>
       </c>
       <c r="E62" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>34034</v>
+        <v>33984</v>
       </c>
       <c r="B63" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C63" t="s">
         <v>11</v>
@@ -5972,18 +5975,18 @@
         <v>1992</v>
       </c>
       <c r="E63" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>34037</v>
+        <v>33992</v>
       </c>
       <c r="B64" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C64" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D64">
         <v>1992</v>
@@ -5992,12 +5995,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>34041</v>
+        <v>33995</v>
       </c>
       <c r="B65" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C65" t="s">
         <v>11</v>
@@ -6006,15 +6009,15 @@
         <v>1992</v>
       </c>
       <c r="E65" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>34041</v>
+        <v>34006</v>
       </c>
       <c r="B66" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C66" t="s">
         <v>11</v>
@@ -6023,49 +6026,49 @@
         <v>1992</v>
       </c>
       <c r="E66" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>34034</v>
+      </c>
+      <c r="B67" t="s">
+        <v>21</v>
+      </c>
+      <c r="C67" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67">
+        <v>1992</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>34034</v>
+      </c>
+      <c r="B68" t="s">
+        <v>21</v>
+      </c>
+      <c r="C68" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68">
+        <v>1992</v>
+      </c>
+      <c r="E68" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
-        <v>34054</v>
-      </c>
-      <c r="B67" t="s">
-        <v>26</v>
-      </c>
-      <c r="C67" t="s">
-        <v>11</v>
-      </c>
-      <c r="D67">
-        <v>1992</v>
-      </c>
-      <c r="E67" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
-        <v>34054</v>
-      </c>
-      <c r="B68" t="s">
-        <v>26</v>
-      </c>
-      <c r="C68" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68">
-        <v>1992</v>
-      </c>
-      <c r="E68" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>34061</v>
+        <v>34034</v>
       </c>
       <c r="B69" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C69" t="s">
         <v>11</v>
@@ -6074,15 +6077,15 @@
         <v>1992</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>34061</v>
+        <v>34037</v>
       </c>
       <c r="B70" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C70" t="s">
         <v>11</v>
@@ -6094,160 +6097,151 @@
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
+        <v>34041</v>
+      </c>
+      <c r="B71" t="s">
+        <v>27</v>
+      </c>
+      <c r="C71" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71">
+        <v>1992</v>
+      </c>
+      <c r="E71" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>34041</v>
+      </c>
+      <c r="B72" t="s">
+        <v>27</v>
+      </c>
+      <c r="C72" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72">
+        <v>1992</v>
+      </c>
+      <c r="E72" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>34054</v>
+      </c>
+      <c r="B73" t="s">
+        <v>26</v>
+      </c>
+      <c r="C73" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73">
+        <v>1992</v>
+      </c>
+      <c r="E73" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>34054</v>
+      </c>
+      <c r="B74" t="s">
+        <v>26</v>
+      </c>
+      <c r="C74" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74">
+        <v>1992</v>
+      </c>
+      <c r="E74" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>34061</v>
+      </c>
+      <c r="B75" t="s">
+        <v>30</v>
+      </c>
+      <c r="C75" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75">
+        <v>1992</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>34061</v>
+      </c>
+      <c r="B76" t="s">
+        <v>30</v>
+      </c>
+      <c r="C76" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76">
+        <v>1992</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
         <v>34065</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B77" t="s">
         <v>38</v>
       </c>
-      <c r="C71" t="s">
-        <v>11</v>
-      </c>
-      <c r="D71">
-        <v>1992</v>
-      </c>
-      <c r="E71" t="s">
+      <c r="C77" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77">
+        <v>1992</v>
+      </c>
+      <c r="E77" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
         <v>34065</v>
-      </c>
-      <c r="B72" t="s">
-        <v>38</v>
-      </c>
-      <c r="C72" t="s">
-        <v>11</v>
-      </c>
-      <c r="D72">
-        <v>1992</v>
-      </c>
-      <c r="E72" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
-        <v>34065</v>
-      </c>
-      <c r="B73" t="s">
-        <v>38</v>
-      </c>
-      <c r="C73" t="s">
-        <v>11</v>
-      </c>
-      <c r="D73">
-        <v>1992</v>
-      </c>
-      <c r="E73" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
-        <v>34071</v>
-      </c>
-      <c r="B74" t="s">
-        <v>34</v>
-      </c>
-      <c r="C74" t="s">
-        <v>11</v>
-      </c>
-      <c r="D74">
-        <v>1992</v>
-      </c>
-      <c r="E74" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
-        <v>34071</v>
-      </c>
-      <c r="B75" t="s">
-        <v>34</v>
-      </c>
-      <c r="C75" t="s">
-        <v>11</v>
-      </c>
-      <c r="D75">
-        <v>1992</v>
-      </c>
-      <c r="E75" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
-        <v>34076</v>
-      </c>
-      <c r="B76" t="s">
-        <v>32</v>
-      </c>
-      <c r="C76" t="s">
-        <v>11</v>
-      </c>
-      <c r="D76">
-        <v>1992</v>
-      </c>
-      <c r="E76" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
-        <v>34076</v>
-      </c>
-      <c r="B77" t="s">
-        <v>32</v>
-      </c>
-      <c r="C77" t="s">
-        <v>11</v>
-      </c>
-      <c r="D77">
-        <v>1992</v>
-      </c>
-      <c r="E77" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A78" s="1">
-        <v>34105</v>
       </c>
       <c r="B78" t="s">
         <v>38</v>
       </c>
       <c r="C78" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="D78">
         <v>1992</v>
       </c>
       <c r="E78" t="s">
-        <v>42</v>
-      </c>
-      <c r="G78" t="s">
-        <v>73</v>
-      </c>
-      <c r="I78">
-        <v>58</v>
-      </c>
-      <c r="L78" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>34108</v>
+        <v>34065</v>
       </c>
       <c r="B79" t="s">
         <v>38</v>
       </c>
       <c r="C79" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="D79">
         <v>1992</v>
@@ -6255,241 +6249,253 @@
       <c r="E79" t="s">
         <v>53</v>
       </c>
-      <c r="G79" t="s">
-        <v>72</v>
-      </c>
-      <c r="I79">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>34108</v>
+        <v>34071</v>
       </c>
       <c r="B80" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C80" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="D80">
         <v>1992</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
-      </c>
-      <c r="I80">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>34108</v>
+        <v>34071</v>
       </c>
       <c r="B81" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C81" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="D81">
         <v>1992</v>
       </c>
       <c r="E81" t="s">
-        <v>59</v>
-      </c>
-      <c r="I81">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
-        <v>76</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>34076</v>
       </c>
       <c r="B82" t="s">
         <v>32</v>
       </c>
       <c r="C82" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="D82">
         <v>1992</v>
       </c>
       <c r="E82" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
-        <v>76</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>34076</v>
       </c>
       <c r="B83" t="s">
         <v>32</v>
       </c>
       <c r="C83" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="D83">
         <v>1992</v>
       </c>
       <c r="E83" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>34090</v>
+      </c>
+      <c r="B84" t="s">
+        <v>24</v>
+      </c>
+      <c r="C84" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84">
+        <v>1992</v>
+      </c>
+      <c r="E84" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B84" t="s">
-        <v>80</v>
-      </c>
-      <c r="C84" t="s">
-        <v>75</v>
-      </c>
-      <c r="D84">
-        <v>1992</v>
-      </c>
-      <c r="E84" t="s">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>34090</v>
+      </c>
+      <c r="B85" t="s">
+        <v>24</v>
+      </c>
+      <c r="C85" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85">
+        <v>1992</v>
+      </c>
+      <c r="E85" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>34093</v>
+      </c>
+      <c r="B86" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86">
+        <v>1992</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>34093</v>
+      </c>
+      <c r="B87" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87">
+        <v>1992</v>
+      </c>
+      <c r="E87" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>34097</v>
+      </c>
+      <c r="B88" t="s">
+        <v>25</v>
+      </c>
+      <c r="C88" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88">
+        <v>1992</v>
+      </c>
+      <c r="E88" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B85" t="s">
-        <v>82</v>
-      </c>
-      <c r="C85" t="s">
-        <v>75</v>
-      </c>
-      <c r="D85">
-        <v>1992</v>
-      </c>
-      <c r="E85" t="s">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>34105</v>
+      </c>
+      <c r="B89" t="s">
+        <v>38</v>
+      </c>
+      <c r="C89" t="s">
+        <v>71</v>
+      </c>
+      <c r="D89">
+        <v>1992</v>
+      </c>
+      <c r="E89" t="s">
+        <v>42</v>
+      </c>
+      <c r="G89" t="s">
+        <v>73</v>
+      </c>
+      <c r="I89">
+        <v>58</v>
+      </c>
+      <c r="L89" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>34108</v>
+      </c>
+      <c r="B90" t="s">
+        <v>38</v>
+      </c>
+      <c r="C90" t="s">
+        <v>71</v>
+      </c>
+      <c r="D90">
+        <v>1992</v>
+      </c>
+      <c r="E90" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
+      <c r="G90" t="s">
+        <v>72</v>
+      </c>
+      <c r="I90">
         <v>83</v>
       </c>
-      <c r="B86" t="s">
-        <v>84</v>
-      </c>
-      <c r="C86" t="s">
-        <v>75</v>
-      </c>
-      <c r="D86">
-        <v>1992</v>
-      </c>
-      <c r="E86" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B87" t="s">
-        <v>84</v>
-      </c>
-      <c r="C87" t="s">
-        <v>75</v>
-      </c>
-      <c r="D87">
-        <v>1992</v>
-      </c>
-      <c r="E87" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="1">
-        <v>34090</v>
-      </c>
-      <c r="B88" t="s">
-        <v>24</v>
-      </c>
-      <c r="C88" t="s">
-        <v>11</v>
-      </c>
-      <c r="D88">
-        <v>1992</v>
-      </c>
-      <c r="E88" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="1">
-        <v>34090</v>
-      </c>
-      <c r="B89" t="s">
-        <v>24</v>
-      </c>
-      <c r="C89" t="s">
-        <v>11</v>
-      </c>
-      <c r="D89">
-        <v>1992</v>
-      </c>
-      <c r="E89" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="1">
-        <v>34093</v>
-      </c>
-      <c r="B90" t="s">
-        <v>14</v>
-      </c>
-      <c r="C90" t="s">
-        <v>11</v>
-      </c>
-      <c r="D90">
-        <v>1992</v>
-      </c>
-      <c r="E90" t="s">
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>34108</v>
+      </c>
+      <c r="B91" t="s">
+        <v>38</v>
+      </c>
+      <c r="C91" t="s">
+        <v>71</v>
+      </c>
+      <c r="D91">
+        <v>1992</v>
+      </c>
+      <c r="E91" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="1">
-        <v>34093</v>
-      </c>
-      <c r="B91" t="s">
-        <v>14</v>
-      </c>
-      <c r="C91" t="s">
-        <v>11</v>
-      </c>
-      <c r="D91">
-        <v>1992</v>
-      </c>
-      <c r="E91" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I91">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>34097</v>
+        <v>34108</v>
       </c>
       <c r="B92" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C92" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="D92">
         <v>1992</v>
       </c>
       <c r="E92" t="s">
-        <v>56</v>
+        <v>59</v>
+      </c>
+      <c r="I92">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N92">
+    <sortCondition ref="A2:A92"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12718,7 +12724,7 @@
   <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13899,7 +13905,7 @@
         <v>1992</v>
       </c>
       <c r="E58" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F58">
         <v>7</v>
